--- a/HONDURAS/Indígenas/Juventud Indigena - afrodecendiente - Celade/CONSOLIDADO Juventud indígena - afrodecendiente Celade.xlsx
+++ b/HONDURAS/Indígenas/Juventud Indigena - afrodecendiente - Celade/CONSOLIDADO Juventud indígena - afrodecendiente Celade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Indígenas\Juventud Indigena - afrodecendiente - Celade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C75D451-52DE-4E43-9B86-F0BEDC6C1957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7DBD15-BCEB-4F07-9326-B81C5AE86924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3960" windowWidth="19440" windowHeight="15000" firstSheet="22" activeTab="23" xr2:uid="{53566FDC-CC52-4E64-AD63-E8CA7AD5275B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="22" activeTab="23" xr2:uid="{53566FDC-CC52-4E64-AD63-E8CA7AD5275B}"/>
   </bookViews>
   <sheets>
     <sheet name="Años estudio por sexo" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="##,###,###,###,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -592,7 +592,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,57 +622,6 @@
   <dxfs count="135">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -712,6 +661,35 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -738,24 +716,29 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="0"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -789,19 +772,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -820,7 +791,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -862,26 +845,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="0.000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -994,6 +964,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1032,6 +1005,47 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1140,6 +1154,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1148,6 +1165,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1176,6 +1200,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1197,6 +1245,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1237,64 +1295,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1309,40 +1309,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA3865EC-D6CC-4259-97C4-1DAE3BFAD5CF}" name="AñosEstudioSexo" displayName="AñosEstudioSexo" ref="A1:E73" totalsRowShown="0" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA3865EC-D6CC-4259-97C4-1DAE3BFAD5CF}" name="AñosEstudioSexo" displayName="AñosEstudioSexo" ref="A1:E73" totalsRowShown="0" dataDxfId="134">
   <autoFilter ref="A1:E73" xr:uid="{206849D8-2BD6-41DC-BD7E-86C1EC6D2FC9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0219232D-47E4-4FD1-A3AD-2E3240C0B65A}" name="Condición étnica" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{F0F71C3B-CB2F-4426-8CDC-4CD93E85890B}" name="Sexo" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{FCDB9D14-4D84-453E-B01D-6160B3B307A3}" name="Grupos de edad" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{3DA3CFBD-9642-4B56-AF01-B57CD4EBF4C1}" name="Nivel Instrucción" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{6BCC4A43-5CA5-494E-B7C2-55B65A0B3C11}" name="Años de estudio" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{0219232D-47E4-4FD1-A3AD-2E3240C0B65A}" name="Condición étnica" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{F0F71C3B-CB2F-4426-8CDC-4CD93E85890B}" name="Sexo" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{FCDB9D14-4D84-453E-B01D-6160B3B307A3}" name="Grupos de edad" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{3DA3CFBD-9642-4B56-AF01-B57CD4EBF4C1}" name="Nivel Instrucción" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{6BCC4A43-5CA5-494E-B7C2-55B65A0B3C11}" name="Años de estudio" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4C8DA5C8-C0CF-4088-B6E7-C2CAC9558C38}" name="JovenesMadresPertIndigena" displayName="JovenesMadresPertIndigena" ref="A1:D37" totalsRowShown="0" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4C8DA5C8-C0CF-4088-B6E7-C2CAC9558C38}" name="JovenesMadresPertIndigena" displayName="JovenesMadresPertIndigena" ref="A1:D37" totalsRowShown="0" dataDxfId="83">
   <autoFilter ref="A1:D37" xr:uid="{D5A7D9B1-ABB8-4393-AE11-425BB2D829C9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{780E6009-262F-4302-84E8-7DFEA115AD77}" name="Pueblos" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{78C1FE37-B567-4519-B673-9841C482B3D9}" name="Zona de residencia" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{8C443FA8-18A5-478D-9747-395353F5841F}" name="Maternidad" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{686552EC-BF64-484A-A8D2-F44F51CEEA10}" name="Valores absolutos" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{780E6009-262F-4302-84E8-7DFEA115AD77}" name="Pueblos" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{78C1FE37-B567-4519-B673-9841C482B3D9}" name="Zona de residencia" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{8C443FA8-18A5-478D-9747-395353F5841F}" name="Maternidad" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{686552EC-BF64-484A-A8D2-F44F51CEEA10}" name="Valores absolutos" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FEC11FFD-444E-4E1C-8830-924F4407CE8E}" name="JovOcupadosSexo" displayName="JovOcupadosSexo" ref="A1:D13" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FEC11FFD-444E-4E1C-8830-924F4407CE8E}" name="JovOcupadosSexo" displayName="JovOcupadosSexo" ref="A1:D13" totalsRowShown="0" dataDxfId="78">
   <autoFilter ref="A1:D13" xr:uid="{65E40ECF-5EE8-4509-BBB4-EFBCCF2FEF11}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E48B7E77-56A7-497E-A85E-1FD1923DB0D5}" name="Condición étnica" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{0A9779D0-C94B-4994-8AB9-4ED6FFE792DE}" name="Zona de residencia" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{0E5A0BFA-E47E-4084-8E31-2779B12998A9}" name="Sexo" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{D5F6FCCE-397D-4EAF-9F26-574067A49F76}" name="Cantidad jóvenes ocupados" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{E48B7E77-56A7-497E-A85E-1FD1923DB0D5}" name="Condición étnica" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{0A9779D0-C94B-4994-8AB9-4ED6FFE792DE}" name="Zona de residencia" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0E5A0BFA-E47E-4084-8E31-2779B12998A9}" name="Sexo" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{D5F6FCCE-397D-4EAF-9F26-574067A49F76}" name="Cantidad jóvenes ocupados" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1356,79 +1356,79 @@
     <tableColumn id="2" xr3:uid="{BD5B8DC0-CAC4-41AF-8B7F-32A952E91DF6}" name="Categoría ocupacional"/>
     <tableColumn id="3" xr3:uid="{F8084FC5-1508-4500-A7FA-DD1C5CD09283}" name="Sexo"/>
     <tableColumn id="4" xr3:uid="{A41F480F-1677-4996-9A8A-D962D21F1888}" name="Zona de residencia"/>
-    <tableColumn id="5" xr3:uid="{C439A127-B726-4576-934B-C646390848F7}" name="Tramo de edad" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{6AF8FAB2-C25B-4D62-A104-745C1F9A179F}" name="Cantidad jóvenes ocupados" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{C439A127-B726-4576-934B-C646390848F7}" name="Tramo de edad" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{6AF8FAB2-C25B-4D62-A104-745C1F9A179F}" name="Cantidad jóvenes ocupados" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E9B2FBB4-6067-4D9A-AA2F-F6FEDC84D1EF}" name="JovOcupadosSectorEcon" displayName="JovOcupadosSectorEcon" ref="A1:F73" totalsRowShown="0" headerRowDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E9B2FBB4-6067-4D9A-AA2F-F6FEDC84D1EF}" name="JovOcupadosSectorEcon" displayName="JovOcupadosSectorEcon" ref="A1:F73" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="A1:F73" xr:uid="{258CCAAD-1C1D-42E9-8253-19C71ADAE2CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E654AFED-E266-4772-A780-61AA130BAA42}" name="Condición indógena" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{02AD75A8-2118-4F7F-99FA-9057B0D09AAB}" name="Rama" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{FBE9448B-555C-40A5-9B89-11EF6D065E25}" name="Sexo" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{98F59425-4A97-4825-B417-B954794780CC}" name="Zona de residencia" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{1DADE16B-6CE8-4C6F-92E6-5F060BA174DE}" name="Tramo de edad" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{D5D2A1B7-FF85-47ED-B88A-EE39C0699C76}" name="Cantidad jóvenes ocupados" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{E654AFED-E266-4772-A780-61AA130BAA42}" name="Condición indógena" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{02AD75A8-2118-4F7F-99FA-9057B0D09AAB}" name="Rama" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{FBE9448B-555C-40A5-9B89-11EF6D065E25}" name="Sexo" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{98F59425-4A97-4825-B417-B954794780CC}" name="Zona de residencia" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{1DADE16B-6CE8-4C6F-92E6-5F060BA174DE}" name="Tramo de edad" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{D5D2A1B7-FF85-47ED-B88A-EE39C0699C76}" name="Cantidad jóvenes ocupados" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2A6CA360-3AB3-49B6-960D-057BCDC61CC8}" name="JovOcupadosCategOcupacional" displayName="JovOcupadosCategOcupacional" ref="A1:F73" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2A6CA360-3AB3-49B6-960D-057BCDC61CC8}" name="JovOcupadosCategOcupacional" displayName="JovOcupadosCategOcupacional" ref="A1:F73" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:F73" xr:uid="{9878ACE7-607A-4995-B70F-E5C77734749F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E2FE2E81-80ED-46BD-8EF4-C20AE819B754}" name="Condición indógena" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{A16128F9-204B-40C4-BCFF-B6CC9845247B}" name="Categoría ocupacional" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{C5DB24C6-3B48-4679-B6AB-93AC9D5E7A6B}" name="Sexo" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{9C6B204E-7F1E-4FA8-B5B1-23E5D1D92E45}" name="Zona de residencia" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{C94BE208-43C6-4BA3-8DBD-6531FBDB4514}" name="Tramo de edad" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{5D1F759A-6C73-4009-BBC2-487B5FF04F64}" name="Cantidad jóvenes ocupados" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{E2FE2E81-80ED-46BD-8EF4-C20AE819B754}" name="Condición indógena" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{A16128F9-204B-40C4-BCFF-B6CC9845247B}" name="Categoría ocupacional" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{C5DB24C6-3B48-4679-B6AB-93AC9D5E7A6B}" name="Sexo" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{9C6B204E-7F1E-4FA8-B5B1-23E5D1D92E45}" name="Zona de residencia" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{C94BE208-43C6-4BA3-8DBD-6531FBDB4514}" name="Tramo de edad" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{5D1F759A-6C73-4009-BBC2-487B5FF04F64}" name="Cantidad jóvenes ocupados" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{42B9E6F9-F9CB-44E5-8EC9-48CF8693B3FB}" name="JovOcupadosAñosEstudio" displayName="JovOcupadosAñosEstudio" ref="A1:E49" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{42B9E6F9-F9CB-44E5-8EC9-48CF8693B3FB}" name="JovOcupadosAñosEstudio" displayName="JovOcupadosAñosEstudio" ref="A1:E49" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:E49" xr:uid="{8464475B-F1A3-4BFB-A9A6-3922966766A8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97C7ED92-87D5-49D8-AE50-C1460F74BC4F}" name="Condución étnica" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{0C94929B-02A8-4C78-9A5F-46E0372B1675}" name="Años de estudio" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{26A3B110-6B5A-4CC1-865F-24AF7048929E}" name="Zona de residencia" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{E2CE9801-38F6-4C1C-A58C-90D7C0098760}" name="Sexo" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{802F00AD-831E-476A-AE54-8EA1AECB0BA4}" name="Cantidad jóvenes ocupados" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{97C7ED92-87D5-49D8-AE50-C1460F74BC4F}" name="Condución étnica" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{0C94929B-02A8-4C78-9A5F-46E0372B1675}" name="Años de estudio" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{26A3B110-6B5A-4CC1-865F-24AF7048929E}" name="Zona de residencia" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{E2CE9801-38F6-4C1C-A58C-90D7C0098760}" name="Sexo" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{802F00AD-831E-476A-AE54-8EA1AECB0BA4}" name="Cantidad jóvenes ocupados" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{6282B33C-2748-4C10-85F9-644A69B2390C}" name="JovOcupadosSituacionLab" displayName="JovOcupadosSituacionLab" ref="A1:E49" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{6282B33C-2748-4C10-85F9-644A69B2390C}" name="JovOcupadosSituacionLab" displayName="JovOcupadosSituacionLab" ref="A1:E49" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:E49" xr:uid="{70B6A72A-3033-40F3-AC6F-B8ED029B78CC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{511BDE92-EDBA-496D-8256-C9FCABD7BF4F}" name="Condución étnica" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{60CB801B-88D0-4B28-A074-3BEEB5F8C59B}" name="Situación laboral" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{41B83C3A-319E-4019-9AD2-15459525057D}" name="Zona de residencia" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{E7AAE839-5BEC-4D78-8C11-DCFD7538B54E}" name="Sexo" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{64A41EF2-AA53-40BE-A6E4-702B19E9B097}" name="Cantidad jóvenes" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{511BDE92-EDBA-496D-8256-C9FCABD7BF4F}" name="Condución étnica" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{60CB801B-88D0-4B28-A074-3BEEB5F8C59B}" name="Situación laboral" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{41B83C3A-319E-4019-9AD2-15459525057D}" name="Zona de residencia" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{E7AAE839-5BEC-4D78-8C11-DCFD7538B54E}" name="Sexo" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{64A41EF2-AA53-40BE-A6E4-702B19E9B097}" name="Cantidad jóvenes" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B219A346-9140-484D-8095-9E45D8D228BC}" name="JovenesNivelInstruccion" displayName="JovenesNivelInstruccion" ref="A1:D65" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B219A346-9140-484D-8095-9E45D8D228BC}" name="JovenesNivelInstruccion" displayName="JovenesNivelInstruccion" ref="A1:D65" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:D65" xr:uid="{99C6B89F-A7B1-4C65-A30F-17E99BED29B0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18F4764D-0324-4BFC-A0BD-0CF0A40B190B}" name="Pueblos" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{4276244F-BB74-4435-9A08-F21E22854B26}" name="Nivel intrucción" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{F05900B4-9AE3-4B74-B30C-B8D88D9DCDB8}" name="Sexo" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{A3346852-B68F-4394-AE9D-35D050ADB9B9}" name="Cantidad jóvenes" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{18F4764D-0324-4BFC-A0BD-0CF0A40B190B}" name="Pueblos" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{4276244F-BB74-4435-9A08-F21E22854B26}" name="Nivel intrucción" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{F05900B4-9AE3-4B74-B30C-B8D88D9DCDB8}" name="Sexo" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{A3346852-B68F-4394-AE9D-35D050ADB9B9}" name="Cantidad jóvenes" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,131 +1439,131 @@
   <autoFilter ref="A1:D4" xr:uid="{055199E4-ED8A-4581-ABD6-3D3FB54B9FE9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0DB0D820-AB21-43FA-8469-147386C25ACA}" name="Condición étnica"/>
-    <tableColumn id="2" xr3:uid="{14800FF3-B3BE-4A6D-BDA7-5C9C1AF655EA}" name="Total población" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{9FB04F94-CFDB-45E5-A691-D6192AE42CA3}" name="Cantidad jóvenes" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{70D83026-0E09-46C6-A5EA-E2BA57850CBB}" name="Peso" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{14800FF3-B3BE-4A6D-BDA7-5C9C1AF655EA}" name="Total población" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{9FB04F94-CFDB-45E5-A691-D6192AE42CA3}" name="Cantidad jóvenes" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{70D83026-0E09-46C6-A5EA-E2BA57850CBB}" name="Peso" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{9D63251B-D3FD-456C-9FF2-5797FCC06B82}" name="PobCondicionEtnicaSexo" displayName="PobCondicionEtnicaSexo" ref="A1:E49" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{9D63251B-D3FD-456C-9FF2-5797FCC06B82}" name="PobCondicionEtnicaSexo" displayName="PobCondicionEtnicaSexo" ref="A1:E49" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:E49" xr:uid="{492415AD-A93F-4F11-AFD6-FCEDDBEDC51B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5854ED71-ADEE-4790-B75B-0C8B72DCBE19}" name="Condición indígena" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{F31E9A9A-755C-4D5F-B549-8543847E4A04}" name="Edades" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{CECFE10C-9C01-4015-B639-0BD1BF44BC90}" name="Sexo" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{70C2712F-AA6B-426E-82F0-29B5C73EF50F}" name="Zona de residencia" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{4A97E436-C3F5-422A-B94A-51CF50A9CDAE}" name="Cantidad" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{5854ED71-ADEE-4790-B75B-0C8B72DCBE19}" name="Condición indígena" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{F31E9A9A-755C-4D5F-B549-8543847E4A04}" name="Edades" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CECFE10C-9C01-4015-B639-0BD1BF44BC90}" name="Sexo" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{70C2712F-AA6B-426E-82F0-29B5C73EF50F}" name="Zona de residencia" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{4A97E436-C3F5-422A-B94A-51CF50A9CDAE}" name="Cantidad" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E5DC6A1-EA80-4036-9E80-35368BF73E9E}" name="AñosEstudioZona" displayName="AñosEstudioZona" ref="A1:E73" totalsRowShown="0" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E5DC6A1-EA80-4036-9E80-35368BF73E9E}" name="AñosEstudioZona" displayName="AñosEstudioZona" ref="A1:E73" totalsRowShown="0" dataDxfId="128">
   <autoFilter ref="A1:E73" xr:uid="{60F07349-307F-4247-ACDF-73DF7E86B094}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DF6D7C6E-8B54-4F28-A22A-DF10897BC0B9}" name="Condición étnica" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{DA22BBC8-096A-44B6-8D83-AE0749FDFDED}" name="Sexo" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{9F817B66-ECAD-4AE3-AE45-B78ECB6D24D1}" name="Grupos de edad" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{C98F2CEE-BF35-4F77-B562-1CFAA9049D7A}" name="Nivel Instrucción" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{15066ED4-7C2C-423B-B814-967532EAE7D8}" name="Años de estudio" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{DF6D7C6E-8B54-4F28-A22A-DF10897BC0B9}" name="Condición étnica" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{DA22BBC8-096A-44B6-8D83-AE0749FDFDED}" name="Zona de residencia" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{9F817B66-ECAD-4AE3-AE45-B78ECB6D24D1}" name="Grupos de edad" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{C98F2CEE-BF35-4F77-B562-1CFAA9049D7A}" name="Nivel Instrucción" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{15066ED4-7C2C-423B-B814-967532EAE7D8}" name="Años de estudio" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7C414845-FBB3-4691-80E5-5B333D53D40A}" name="JovZonaUrbana" displayName="JovZonaUrbana" ref="A1:C17" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7C414845-FBB3-4691-80E5-5B333D53D40A}" name="JovZonaUrbana" displayName="JovZonaUrbana" ref="A1:C17" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:C17" xr:uid="{BD3FC273-34C2-4F83-9A3A-F3FCCD500ED8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E3AC7FE0-260F-42F1-8CDD-5557658F1507}" name="Pueblos" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{DCB2DFEA-302D-4F8C-97D9-0EAEB56D31B0}" name="Zona de residencia" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A8C7665B-A0A2-4985-A5C5-020CFE68F248}" name="Cantidad jóvenes" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{E3AC7FE0-260F-42F1-8CDD-5557658F1507}" name="Pueblos" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DCB2DFEA-302D-4F8C-97D9-0EAEB56D31B0}" name="Zona de residencia" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A8C7665B-A0A2-4985-A5C5-020CFE68F248}" name="Cantidad jóvenes" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{14820530-19ED-4C9A-8E49-60E9D546D265}" name="HijosFallecidosMadresJovenes" displayName="HijosFallecidosMadresJovenes" ref="A1:E49" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{14820530-19ED-4C9A-8E49-60E9D546D265}" name="HijosFallecidosMadresJovenes" displayName="HijosFallecidosMadresJovenes" ref="A1:E49" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:E49" xr:uid="{2BF23EF3-F169-4284-BE78-27E689C32360}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{79EF2778-E7ED-4248-8A6D-ACB8EB75C814}" name="Condición étnica" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{F9C51EC9-07DF-4246-A75A-84B29D3E9186}" name="Años de estudio" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A0CDF1F5-8A7C-4609-99E4-94FB41C9D29D}" name="Condición nacidos" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9DA45C8D-C20E-4529-818E-4E1193EE963A}" name="Zona de residencia" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{AB18030C-1CA7-4AE2-8C64-0AA657E1EE93}" name="Cantidad hijos nacidos" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{79EF2778-E7ED-4248-8A6D-ACB8EB75C814}" name="Condición étnica" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F9C51EC9-07DF-4246-A75A-84B29D3E9186}" name="Años de estudio" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{A0CDF1F5-8A7C-4609-99E4-94FB41C9D29D}" name="Condición nacidos" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9DA45C8D-C20E-4529-818E-4E1193EE963A}" name="Zona de residencia" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{AB18030C-1CA7-4AE2-8C64-0AA657E1EE93}" name="Cantidad hijos nacidos" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{8F84F5C9-AA99-4F3D-845B-FC3E3D89EDAB}" name="DesempleoJovenesGrupoEdad" displayName="DesempleoJovenesGrupoEdad" ref="A1:F73" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{8F84F5C9-AA99-4F3D-845B-FC3E3D89EDAB}" name="DesempleoJovenesGrupoEdad" displayName="DesempleoJovenesGrupoEdad" ref="A1:F73" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:F73" xr:uid="{817ABE24-0C8D-482A-8DAE-BC9C1195EC89}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F34F3544-5AC7-4F9C-985F-1349929705CC}" name="Condición étnica" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5D878347-2E2B-468A-98D4-781C24B22FF8}" name="Grupos de edad" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9E9DD30E-9FDF-44D2-89C0-A4775316B647}" name="Sexo" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AA65C7C2-752A-4F87-9C5E-45E3BE74B2AC}" name="Zona de residencia" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F940D666-84CB-462B-8363-043EBAFB9547}" name="Ocupación" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{45DFEC96-31E0-497D-844E-E22601B10924}" name="Catidad jóvenes" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F34F3544-5AC7-4F9C-985F-1349929705CC}" name="Condición étnica" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{5D878347-2E2B-468A-98D4-781C24B22FF8}" name="Grupos de edad" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9E9DD30E-9FDF-44D2-89C0-A4775316B647}" name="Sexo" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AA65C7C2-752A-4F87-9C5E-45E3BE74B2AC}" name="Zona de residencia" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{F940D666-84CB-462B-8363-043EBAFB9547}" name="Ocupación" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{45DFEC96-31E0-497D-844E-E22601B10924}" name="Catidad jóvenes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{EC319C64-8F89-4721-8584-FBB4CA65A0CD}" name="VolumenJovenesCondEtnica" displayName="VolumenJovenesCondEtnica" ref="A1:C7" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{EC319C64-8F89-4721-8584-FBB4CA65A0CD}" name="VolumenJovenesCondEtnica" displayName="VolumenJovenesCondEtnica" ref="A1:C7" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C7" xr:uid="{C6CF47B7-488E-4576-9085-602BAFFF9705}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{82064078-6479-4E23-A73C-2258273E073D}" name="Condición étnica" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2872F224-446D-4BFC-A991-6C302FE42445}" name="Sexo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{ED89709A-7BE5-45AD-9D9C-BBE8476CCEFB}" name="Cantidad de jóvenes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{82064078-6479-4E23-A73C-2258273E073D}" name="Condición étnica" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2872F224-446D-4BFC-A991-6C302FE42445}" name="Sexo" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{ED89709A-7BE5-45AD-9D9C-BBE8476CCEFB}" name="Cantidad de jóvenes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D1D4C09F-9CA7-4B4C-86A3-2365C5AF8FF5}" name="DesempleoJovenesAñosEstudio" displayName="DesempleoJovenesAñosEstudio" ref="A1:F97" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D1D4C09F-9CA7-4B4C-86A3-2365C5AF8FF5}" name="DesempleoJovenesAñosEstudio" displayName="DesempleoJovenesAñosEstudio" ref="A1:F97" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F97" xr:uid="{E83CC024-0677-4EC8-81C0-DC708E97636C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D666B02B-7BE1-43BC-B3CC-2FB4180ACBAA}" name="Condición étnica" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F11E7827-1819-4838-BF04-C4FCC1017E56}" name="Años de estudio" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{FB11D4B8-CB44-49CA-ACC7-02A414388B0D}" name="Sexo" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F4A2CBAC-BC46-4476-8968-2B604165ADDC}" name="Zona de residencia" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B995ACD7-7E7E-4F95-944A-569F9961B2B8}" name="Ocupación" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00EF8A12-B073-4748-836B-7E84CBF7B087}" name="Catidad jóvenes" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{D666B02B-7BE1-43BC-B3CC-2FB4180ACBAA}" name="Condición étnica" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F11E7827-1819-4838-BF04-C4FCC1017E56}" name="Años de estudio" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FB11D4B8-CB44-49CA-ACC7-02A414388B0D}" name="Sexo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F4A2CBAC-BC46-4476-8968-2B604165ADDC}" name="Zona de residencia" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B995ACD7-7E7E-4F95-944A-569F9961B2B8}" name="Ocupación" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00EF8A12-B073-4748-836B-7E84CBF7B087}" name="Catidad jóvenes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CCF61893-70F3-409C-84AA-66553317E40D}" name="DistribucionJovenes" displayName="DistribucionJovenes" ref="A1:D55" totalsRowShown="0" dataDxfId="107" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CCF61893-70F3-409C-84AA-66553317E40D}" name="DistribucionJovenes" displayName="DistribucionJovenes" ref="A1:D55" totalsRowShown="0" dataDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="A1:D55" xr:uid="{9FD866A4-8469-4159-A2CA-3AAFDE1762D2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{51C9404A-E9FA-443D-A21C-2F9815CCCFBE}" name="Nombre del Departamento" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{7D3B0C62-47CA-4D5C-8378-C997A544AF17}" name="Condición étnica" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{1B827DF9-CDDD-4FA0-A635-6D1CFF897265}" name="Total de población" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{D677CD88-2257-4C8B-A9C4-0C9CD2EDDB4E}" name="Total de población jóvenes" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{51C9404A-E9FA-443D-A21C-2F9815CCCFBE}" name="Nombre del Departamento" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{7D3B0C62-47CA-4D5C-8378-C997A544AF17}" name="Condición étnica" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{1B827DF9-CDDD-4FA0-A635-6D1CFF897265}" name="Total de población" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{D677CD88-2257-4C8B-A9C4-0C9CD2EDDB4E}" name="Total de población jóvenes" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8CFAD42B-9729-48E8-AE4B-F74E3EC3192A}" name="DistJovenesPeso" displayName="DistJovenesPeso" ref="A1:D9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8CFAD42B-9729-48E8-AE4B-F74E3EC3192A}" name="DistJovenesPeso" displayName="DistJovenesPeso" ref="A1:D9" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="A1:D9" xr:uid="{41D4ECC9-741D-4AAF-9085-500DBE121BD5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C3EA3497-FDA4-4256-AD1C-1A6D6172C3FB}" name="Pertenencia a Pueblos Originarios o Indígenas" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{D7A93D31-C474-4AEC-ACF3-1BAD66DBEC4D}" name="Total*" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{9DA6B677-B5F1-4E63-97DE-3C358DC15915}" name="Jóvenes" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{D411D8D5-1098-45E4-8623-3A25A6317C29}" name="Peso **" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{C3EA3497-FDA4-4256-AD1C-1A6D6172C3FB}" name="Pertenencia a Pueblos Originarios o Indígenas" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{D7A93D31-C474-4AEC-ACF3-1BAD66DBEC4D}" name="Total*" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{9DA6B677-B5F1-4E63-97DE-3C358DC15915}" name="Jóvenes" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{D411D8D5-1098-45E4-8623-3A25A6317C29}" name="Peso **" dataDxfId="111">
       <calculatedColumnFormula>C2/B2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1572,66 +1572,66 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{389111C1-C14B-4F96-A8EE-60F211345000}" name="JovenesEdadQuinquenales" displayName="JovenesEdadQuinquenales" ref="A1:C10" totalsRowShown="0" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{389111C1-C14B-4F96-A8EE-60F211345000}" name="JovenesEdadQuinquenales" displayName="JovenesEdadQuinquenales" ref="A1:C10" totalsRowShown="0" dataDxfId="110">
   <autoFilter ref="A1:C10" xr:uid="{A7E814A4-C5A0-47C1-A4F7-9A0E223CE591}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9CF48246-ED6D-48AA-9095-2D0FABCC449F}" name="Condición étnica" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{2CB59FDE-27D5-49D2-8C56-6C0A615C3D53}" name="Edades quinquenales" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{8ECCBC4C-F1FF-4B71-9B41-6D973F8CB235}" name="Valores absolutos" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{9CF48246-ED6D-48AA-9095-2D0FABCC449F}" name="Condición étnica" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{2CB59FDE-27D5-49D2-8C56-6C0A615C3D53}" name="Edades quinquenales" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{8ECCBC4C-F1FF-4B71-9B41-6D973F8CB235}" name="Valores absolutos" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF32AC90-C5A8-4259-A669-C9122D6A1965}" name="IndicePoblacionJoven" displayName="IndicePoblacionJoven" ref="A1:C55" totalsRowShown="0" dataDxfId="100" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF32AC90-C5A8-4259-A669-C9122D6A1965}" name="IndicePoblacionJoven" displayName="IndicePoblacionJoven" ref="A1:C55" totalsRowShown="0" dataDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A1:C55" xr:uid="{26514591-4004-4BD5-859A-39F3D978EDB4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EF408A6B-A216-477D-99D1-DD2828D78903}" name="Nombre del Departamento" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{BAF25B9E-882E-4A1C-9636-DB291BC2D421}" name="Condición étnica" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{5DC460D9-CCEE-4D37-A03E-1CAE4DA8F0D3}" name="Índice población joven" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{EF408A6B-A216-477D-99D1-DD2828D78903}" name="Nombre del Departamento" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{BAF25B9E-882E-4A1C-9636-DB291BC2D421}" name="Condición étnica" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{5DC460D9-CCEE-4D37-A03E-1CAE4DA8F0D3}" name="Índice población joven" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A397200-4FA4-4016-AA4F-D9C24470E6AE}" name="JovenesMadreZona" displayName="JovenesMadreZona" ref="A1:E25" totalsRowShown="0" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5A397200-4FA4-4016-AA4F-D9C24470E6AE}" name="JovenesMadreZona" displayName="JovenesMadreZona" ref="A1:E25" totalsRowShown="0" dataDxfId="101">
   <autoFilter ref="A1:E25" xr:uid="{E24E4631-9838-4812-89A2-B867A1842D24}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CEA72ADD-2B7D-4DF3-AF8D-209A5AA438A1}" name="Condición étnica" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{967961B8-922E-499C-907E-11AE23C4851B}" name="Situación conyugal" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{735764FF-3977-423D-BD62-0415F7E4160C}" name="Zona de residencia" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{9269C5A1-898B-443D-86B9-9F9BFE92342F}" name="Maternidad" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{4D311762-4B1F-48D3-B9C3-E7DD19E50CC5}" name="Cantidad" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{CEA72ADD-2B7D-4DF3-AF8D-209A5AA438A1}" name="Condición étnica" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{967961B8-922E-499C-907E-11AE23C4851B}" name="Situación conyugal" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{735764FF-3977-423D-BD62-0415F7E4160C}" name="Zona de residencia" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{9269C5A1-898B-443D-86B9-9F9BFE92342F}" name="Maternidad" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{4D311762-4B1F-48D3-B9C3-E7DD19E50CC5}" name="Cantidad" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A2622915-0588-4CEF-99C4-83184495CF0F}" name="JovenesMadreZona9" displayName="JovenesMadreZona9" ref="A1:E49" totalsRowShown="0" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A2622915-0588-4CEF-99C4-83184495CF0F}" name="JovenesMadreZona9" displayName="JovenesMadreZona9" ref="A1:E49" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:E49" xr:uid="{E24E4631-9838-4812-89A2-B867A1842D24}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{66AA5A78-C349-46DA-A51E-48B923AC8B64}" name="Condición étnica" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{6AF5D989-A8EA-4EC0-94CF-9DFDAE2E5543}" name="Tramos de edades" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{69A0B181-E01B-476F-8F26-F64A005B881C}" name="Zona de residencia" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{4BE1D39E-A791-40FD-BC5F-5353D4530785}" name="Maternidad" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{B9A27E92-3263-445C-88D5-C3DB0F028105}" name="Cantidad" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{66AA5A78-C349-46DA-A51E-48B923AC8B64}" name="Condición étnica" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{6AF5D989-A8EA-4EC0-94CF-9DFDAE2E5543}" name="Tramos de edades" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{69A0B181-E01B-476F-8F26-F64A005B881C}" name="Zona de residencia" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{4BE1D39E-A791-40FD-BC5F-5353D4530785}" name="Maternidad" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{B9A27E92-3263-445C-88D5-C3DB0F028105}" name="Cantidad" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{90DD9D7F-82E2-4FAF-B01B-B0100AFF654E}" name="JovenesMadreNvlEduc" displayName="JovenesMadreNvlEduc" ref="A1:E49" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{90DD9D7F-82E2-4FAF-B01B-B0100AFF654E}" name="JovenesMadreNvlEduc" displayName="JovenesMadreNvlEduc" ref="A1:E49" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="A1:E49" xr:uid="{E24E4631-9838-4812-89A2-B867A1842D24}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B542D829-A68A-4E49-846F-50C90803ED5A}" name="Condición étnica" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{B3AA0F31-623F-4E56-8FDC-2CC6E38C2CC1}" name="Años de estudio" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{A5A83410-ED09-4DA5-8481-BAF031C8BA83}" name="Zona de residencia" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{06636E2B-547F-4CFC-AA1C-45BAA66AB547}" name="Maternidad" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{7A222C23-C410-49A9-895D-7D545DC73385}" name="Cantidad" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{B542D829-A68A-4E49-846F-50C90803ED5A}" name="Condición étnica" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{B3AA0F31-623F-4E56-8FDC-2CC6E38C2CC1}" name="Años de estudio" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{A5A83410-ED09-4DA5-8481-BAF031C8BA83}" name="Zona de residencia" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{06636E2B-547F-4CFC-AA1C-45BAA66AB547}" name="Maternidad" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{7A222C23-C410-49A9-895D-7D545DC73385}" name="Cantidad" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1937,10 +1937,17 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12485,18 +12492,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313CAC6C-9957-49B8-AE14-7D8E193A0287}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -13779,7 +13793,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
@@ -13874,7 +13888,7 @@
         <v>5132</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
@@ -16416,7 +16430,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16425,6 +16439,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -18379,7 +18394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA7453-0D5F-478A-9F4D-B46D0524C66A}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -19175,12 +19190,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
